--- a/LoowooTech.Land.Zhoushan.Web/templates/资源形势图表模板.xlsx
+++ b/LoowooTech.Land.Zhoushan.Web/templates/资源形势图表模板.xlsx
@@ -4,38 +4,41 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22140" windowHeight="13650"/>
+    <workbookView windowWidth="26655" windowHeight="13650" activeTab="2"/>
   </bookViews>
   <sheets>
-    <sheet name="建设用地审批" sheetId="1" r:id="rId1"/>
-    <sheet name="建设用地供应" sheetId="2" r:id="rId2"/>
+    <sheet name="建设用地预审情况" sheetId="1" r:id="rId1"/>
+    <sheet name="土地供应变化" sheetId="2" r:id="rId2"/>
+    <sheet name="土地登记和抵押" sheetId="3" r:id="rId3"/>
+    <sheet name="矿产收费情况" sheetId="4" r:id="rId4"/>
+    <sheet name="来信件数和来访批次情况" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="144525" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42">
   <si>
-    <t>{Form=1}</t>
+    <t>{Form=8}</t>
   </si>
   <si>
     <t>全市</t>
   </si>
   <si>
-    <t>{Area=1}</t>
+    <t>{Area=1 Node=106}</t>
   </si>
   <si>
-    <t>{Area=2}</t>
+    <t>{Area=2 Node=106}</t>
   </si>
   <si>
-    <t>{Area=3}</t>
+    <t>{Area=3 Node=106}</t>
   </si>
   <si>
-    <t>{Area=4}</t>
+    <t>{Area=4 Node=106}</t>
   </si>
   <si>
-    <t>{Area=5}</t>
+    <t>{Area=5 Node=106}</t>
   </si>
   <si>
     <t>{Year}年</t>
@@ -61,16 +64,97 @@
   <si>
     <t>{Node=87}</t>
   </si>
+  <si>
+    <t>{Form=5}</t>
+  </si>
+  <si>
+    <t>{LastYear}{Quarter=1}</t>
+  </si>
+  <si>
+    <t>{LastYear}{Quarter=2}</t>
+  </si>
+  <si>
+    <t>{LastYear}{Quarter=3}</t>
+  </si>
+  <si>
+    <t>{LastYear}{Quarter=4}</t>
+  </si>
+  <si>
+    <t>{Year}{Quarter=1}</t>
+  </si>
+  <si>
+    <t>{Year}{Quarter=2}</t>
+  </si>
+  <si>
+    <t>{Year}{Quarter=3}</t>
+  </si>
+  <si>
+    <t>{Year}{Quarter=4}</t>
+  </si>
+  <si>
+    <t>{Node=49 Type=5 Hidden=1 Unit=1}</t>
+  </si>
+  <si>
+    <t>{Value}</t>
+  </si>
+  <si>
+    <t>{Year}矿产收费情况 ({Type=5})</t>
+  </si>
+  <si>
+    <t>{LastYear}矿产收费情况 ({Type=5})</t>
+  </si>
+  <si>
+    <t>{Year}合计</t>
+  </si>
+  <si>
+    <t>{Node=138}</t>
+  </si>
+  <si>
+    <t>{Node=139}</t>
+  </si>
+  <si>
+    <t>{Node=140}</t>
+  </si>
+  <si>
+    <t>{LastYear}合计</t>
+  </si>
+  <si>
+    <t>{Area=1}</t>
+  </si>
+  <si>
+    <t>{Area=3}</t>
+  </si>
+  <si>
+    <t>{Area=5}</t>
+  </si>
+  <si>
+    <t>{Area=4}</t>
+  </si>
+  <si>
+    <t>{Area=6}</t>
+  </si>
+  <si>
+    <t>合计</t>
+  </si>
+  <si>
+    <t>{Year}受理群众来信件数和来访批次情况</t>
+  </si>
+  <si>
+    <t>{Node=141 Type=3}</t>
+  </si>
+  <si>
+    <t>{Node=142 Type=9}</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="0.00_ "/>
   </numFmts>
   <fonts count="20">
@@ -82,23 +166,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -112,24 +181,33 @@
     </font>
     <font>
       <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -149,39 +227,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -192,6 +238,14 @@
       <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -212,17 +266,47 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -235,7 +319,91 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -247,13 +415,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -265,7 +427,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -277,25 +445,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -307,13 +463,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -325,49 +475,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -379,43 +499,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -501,37 +585,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -548,23 +606,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -598,6 +641,47 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -606,10 +690,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -618,144 +702,153 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="14" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="12" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="27" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
@@ -774,9 +867,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -880,7 +970,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>建设用地审批!$A$12</c:f>
+              <c:f>建设用地预审情况!$A$12</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -944,33 +1034,33 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>建设用地审批!$B$11:$G$11</c:f>
+              <c:f>建设用地预审情况!$B$11:$G$11</c:f>
               <c:strCache>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>全市</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>{Area=1}</c:v>
+                  <c:v>{Area=1 Node=106}</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>{Area=2}</c:v>
+                  <c:v>{Area=2 Node=106}</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>{Area=3}</c:v>
+                  <c:v>{Area=3 Node=106}</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>{Area=4}</c:v>
+                  <c:v>{Area=4 Node=106}</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>{Area=5}</c:v>
+                  <c:v>{Area=5 Node=106}</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>建设用地审批!$B$12:$G$12</c:f>
+              <c:f>建设用地预审情况!$B$12:$G$12</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -1001,7 +1091,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>建设用地审批!$A$13</c:f>
+              <c:f>建设用地预审情况!$A$13</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1065,33 +1155,33 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>建设用地审批!$B$11:$G$11</c:f>
+              <c:f>建设用地预审情况!$B$11:$G$11</c:f>
               <c:strCache>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>全市</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>{Area=1}</c:v>
+                  <c:v>{Area=1 Node=106}</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>{Area=2}</c:v>
+                  <c:v>{Area=2 Node=106}</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>{Area=3}</c:v>
+                  <c:v>{Area=3 Node=106}</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>{Area=4}</c:v>
+                  <c:v>{Area=4 Node=106}</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>{Area=5}</c:v>
+                  <c:v>{Area=5 Node=106}</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>建设用地审批!$B$13:$G$13</c:f>
+              <c:f>建设用地预审情况!$B$13:$G$13</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -1364,7 +1454,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>建设用地供应!$A$3</c:f>
+              <c:f>土地供应变化!$A$3</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1435,7 +1525,7 @@
           </c:dPt>
           <c:cat>
             <c:strRef>
-              <c:f>建设用地供应!$C$2:$F$2</c:f>
+              <c:f>土地供应变化!$C$2:$F$2</c:f>
               <c:strCache>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
@@ -1455,7 +1545,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>建设用地供应!$C$3:$F$3</c:f>
+              <c:f>土地供应变化!$C$3:$F$3</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
                 <c:ptCount val="4"/>
@@ -1652,7 +1742,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>建设用地供应!$A$3</c:f>
+              <c:f>土地供应变化!$A$3</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1673,7 +1763,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>建设用地供应!$B$2:$F$2</c:f>
+              <c:f>土地供应变化!$B$2:$F$2</c:f>
               <c:strCache>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
@@ -1696,7 +1786,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>建设用地供应!$B$3:$F$3</c:f>
+              <c:f>土地供应变化!$B$3:$F$3</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -1724,7 +1814,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>建设用地供应!$A$4</c:f>
+              <c:f>土地供应变化!$A$4</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1745,7 +1835,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>建设用地供应!$B$2:$F$2</c:f>
+              <c:f>土地供应变化!$B$2:$F$2</c:f>
               <c:strCache>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
@@ -1768,7 +1858,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>建设用地供应!$B$4:$F$4</c:f>
+              <c:f>土地供应变化!$B$4:$F$4</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -1963,6 +2053,1838 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="ellipsis" horzOverflow="overflow" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr" defTabSz="914400">
+              <a:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="0" normalizeH="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t>新增贷款金额变化（亿元）</a:t>
+            </a:r>
+            <a:endParaRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="0" normalizeH="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:endParaRPr>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>土地登记和抵押!$A$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>{Node=49 Type=5 Hidden=1 Unit=1}</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dLbls>
+            <c:numFmt formatCode="General" sourceLinked="1"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="ellipsis" horzOverflow="overflow" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" kern="1200">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="ctr"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:noFill/>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>土地登记和抵押!$B$2:$I$2</c:f>
+              <c:strCache>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>{LastYear}{Quarter=1}</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>{LastYear}{Quarter=2}</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>{LastYear}{Quarter=3}</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>{LastYear}{Quarter=4}</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>{Year}{Quarter=1}</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>{Year}{Quarter=2}</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>{Year}{Quarter=3}</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>{Year}{Quarter=4}</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>土地登记和抵押!$B$3:$I$3</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0" c:formatCode="General">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1" c:formatCode="General">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2" c:formatCode="General">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3" c:formatCode="General">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4" c:formatCode="General">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5" c:formatCode="General">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6" c:formatCode="General">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7" c:formatCode="General">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="r"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="0"/>
+        <c:smooth val="0"/>
+        <c:axId val="871920846"/>
+        <c:axId val="884907760"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="871920846"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="0" vertOverflow="ellipsis" horzOverflow="overflow" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="884907760"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:tickMarkSkip val="1"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="884907760"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="0" vertOverflow="ellipsis" horzOverflow="overflow" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="871920846"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="ellipsis" horzOverflow="overflow" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr lang="zh-CN" sz="1000" kern="1200">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+          <a:latin typeface="+mn-lt"/>
+          <a:ea typeface="+mn-ea"/>
+          <a:cs typeface="+mn-cs"/>
+        </a:defRPr>
+      </a:pPr>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins r="0.7" b="0.75" l="0.7" footer="0.3" header="0.3" t="0.75"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr vertOverflow="ellipsis" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr" defTabSz="914400">
+              <a:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr altLang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="0" normalizeH="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t>矿产收费情况</a:t>
+            </a:r>
+            <a:endParaRPr altLang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="0" normalizeH="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:endParaRPr>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>矿产收费情况!$B$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>{Year}合计</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="0"/>
+              <c:layout/>
+              <c:numFmt formatCode="General" sourceLinked="1"/>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                  <a:spAutoFit/>
+                </a:bodyPr>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" kern="1200">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="75000"/>
+                          <a:lumOff val="25000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                </a:p>
+              </c:txPr>
+              <c:dLblPos val="inEnd"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="1"/>
+              <c:layout/>
+              <c:numFmt formatCode="General" sourceLinked="1"/>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                  <a:spAutoFit/>
+                </a:bodyPr>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" kern="1200">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="75000"/>
+                          <a:lumOff val="25000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                </a:p>
+              </c:txPr>
+              <c:dLblPos val="inEnd"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="2"/>
+              <c:layout/>
+              <c:numFmt formatCode="General" sourceLinked="1"/>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                  <a:spAutoFit/>
+                </a:bodyPr>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" kern="1200">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="75000"/>
+                          <a:lumOff val="25000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                </a:p>
+              </c:txPr>
+              <c:dLblPos val="inEnd"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="3"/>
+              <c:layout/>
+              <c:numFmt formatCode="General" sourceLinked="1"/>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                  <a:spAutoFit/>
+                </a:bodyPr>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" kern="1200">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="75000"/>
+                          <a:lumOff val="25000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                </a:p>
+              </c:txPr>
+              <c:dLblPos val="inEnd"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="4"/>
+              <c:layout/>
+              <c:numFmt formatCode="General" sourceLinked="1"/>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                  <a:spAutoFit/>
+                </a:bodyPr>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" kern="1200">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="75000"/>
+                          <a:lumOff val="25000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                </a:p>
+              </c:txPr>
+              <c:dLblPos val="inEnd"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="5"/>
+              <c:layout/>
+              <c:numFmt formatCode="General" sourceLinked="1"/>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                  <a:spAutoFit/>
+                </a:bodyPr>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" kern="1200">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="75000"/>
+                          <a:lumOff val="25000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                </a:p>
+              </c:txPr>
+              <c:dLblPos val="inEnd"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+              </c:extLst>
+            </c:dLbl>
+            <c:numFmt formatCode="General" sourceLinked="1"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" kern="1200">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="inEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:noFill/>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>矿产收费情况!$A$3:$A$8</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>{Area=1}</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>{Area=3}</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>{Area=5}</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>{Area=4}</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>{Area=6}</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>合计</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>矿产收费情况!$B$3:$B$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0" c:formatCode="General">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1" c:formatCode="General">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2" c:formatCode="General">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3" c:formatCode="General">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4" c:formatCode="General">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5" c:formatCode="General">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>矿产收费情况!$F$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>{LastYear}合计</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="0"/>
+              <c:layout/>
+              <c:numFmt formatCode="General" sourceLinked="1"/>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                  <a:spAutoFit/>
+                </a:bodyPr>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" kern="1200">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="75000"/>
+                          <a:lumOff val="25000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                </a:p>
+              </c:txPr>
+              <c:dLblPos val="inEnd"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="1"/>
+              <c:layout/>
+              <c:numFmt formatCode="General" sourceLinked="1"/>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                  <a:spAutoFit/>
+                </a:bodyPr>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" kern="1200">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="75000"/>
+                          <a:lumOff val="25000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                </a:p>
+              </c:txPr>
+              <c:dLblPos val="inEnd"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="2"/>
+              <c:layout/>
+              <c:numFmt formatCode="General" sourceLinked="1"/>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                  <a:spAutoFit/>
+                </a:bodyPr>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" kern="1200">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="75000"/>
+                          <a:lumOff val="25000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                </a:p>
+              </c:txPr>
+              <c:dLblPos val="inEnd"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="3"/>
+              <c:layout/>
+              <c:numFmt formatCode="General" sourceLinked="1"/>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                  <a:spAutoFit/>
+                </a:bodyPr>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" kern="1200">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="75000"/>
+                          <a:lumOff val="25000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                </a:p>
+              </c:txPr>
+              <c:dLblPos val="inEnd"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="4"/>
+              <c:layout/>
+              <c:numFmt formatCode="General" sourceLinked="1"/>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                  <a:spAutoFit/>
+                </a:bodyPr>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" kern="1200">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="75000"/>
+                          <a:lumOff val="25000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                </a:p>
+              </c:txPr>
+              <c:dLblPos val="inEnd"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="5"/>
+              <c:layout/>
+              <c:numFmt formatCode="General" sourceLinked="1"/>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                  <a:spAutoFit/>
+                </a:bodyPr>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" kern="1200">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="75000"/>
+                          <a:lumOff val="25000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                </a:p>
+              </c:txPr>
+              <c:dLblPos val="inEnd"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+              </c:extLst>
+            </c:dLbl>
+            <c:numFmt formatCode="General" sourceLinked="1"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" kern="1200">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="inEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:noFill/>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>矿产收费情况!$A$3:$A$8</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>{Area=1}</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>{Area=3}</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>{Area=5}</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>{Area=4}</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>{Area=6}</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>合计</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>矿产收费情况!$F$3:$F$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0" c:formatCode="General">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1" c:formatCode="General">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2" c:formatCode="General">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3" c:formatCode="General">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4" c:formatCode="General">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5" c:formatCode="General">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="outEnd"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="370997493"/>
+        <c:axId val="94047756"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="370997493"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="0" vertOverflow="ellipsis" horzOverflow="overflow" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="94047756"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:tickMarkSkip val="1"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="94047756"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="0" vertOverflow="ellipsis" horzOverflow="overflow" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="370997493"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="ellipsis" horzOverflow="overflow" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="ellipsis" horzOverflow="overflow" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr lang="zh-CN" sz="1000" kern="1200">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+          <a:latin typeface="+mn-lt"/>
+          <a:ea typeface="+mn-ea"/>
+          <a:cs typeface="+mn-cs"/>
+        </a:defRPr>
+      </a:pPr>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins r="0.7" b="0.75" l="0.7" footer="0.3" header="0.3" t="0.75"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr vertOverflow="ellipsis" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr" defTabSz="914400">
+              <a:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr altLang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="0" normalizeH="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t>受理群众来信件数和来访批次情况图</a:t>
+            </a:r>
+            <a:endParaRPr altLang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="0" normalizeH="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:endParaRPr>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>来信件数和来访批次情况!$A$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>{Node=141 Type=3}</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>来信件数和来访批次情况!$B$2:$G$2</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>全市</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>{Area=1}</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>{Area=3}</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>{Area=5}</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>{Area=4}</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>{Area=6}</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>来信件数和来访批次情况!$B$3:$G$3</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0" c:formatCode="General">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1" c:formatCode="General">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2" c:formatCode="General">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3" c:formatCode="General">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4" c:formatCode="General">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5" c:formatCode="General">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>来信件数和来访批次情况!$A$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>{Node=142 Type=9}</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>来信件数和来访批次情况!$B$2:$G$2</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>全市</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>{Area=1}</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>{Area=3}</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>{Area=5}</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>{Area=4}</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>{Area=6}</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>来信件数和来访批次情况!$B$4:$G$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0" c:formatCode="General">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1" c:formatCode="General">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2" c:formatCode="General">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3" c:formatCode="General">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4" c:formatCode="General">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5" c:formatCode="General">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="outEnd"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="688125325"/>
+        <c:axId val="70826687"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="688125325"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="0" vertOverflow="ellipsis" horzOverflow="overflow" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="70826687"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:tickMarkSkip val="1"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="70826687"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="0" vertOverflow="ellipsis" horzOverflow="overflow" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="688125325"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="ellipsis" horzOverflow="overflow" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="ellipsis" horzOverflow="overflow" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr lang="zh-CN" sz="1000" kern="1200">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+          <a:latin typeface="+mn-lt"/>
+          <a:ea typeface="+mn-ea"/>
+          <a:cs typeface="+mn-cs"/>
+        </a:defRPr>
+      </a:pPr>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins r="0.7" b="0.75" l="0.7" footer="0.3" header="0.3" t="0.75"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -2043,6 +3965,126 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="251">
   <cs:axisTitle>
@@ -2563,6 +4605,1528 @@
 </file>
 
 <file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -3157,6 +6721,111 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>101600</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>31750</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>235585</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>146050</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame>
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="图表 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="787400" y="717550"/>
+        <a:ext cx="5839460" cy="3371850"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>149225</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>184150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>987425</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>31750</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame>
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="图表 3"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="149225" y="2089150"/>
+        <a:ext cx="5810250" cy="2876550"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>41275</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>663575</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>79375</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame>
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="图表 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="9525" y="727075"/>
+        <a:ext cx="4768850" cy="2781300"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -3426,98 +7095,98 @@
   <sheetPr/>
   <dimension ref="A1:G32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
   <cols>
-    <col min="1" max="1" width="7.33333333333333" style="4" customWidth="1"/>
-    <col min="2" max="2" width="8.375" style="4" customWidth="1"/>
-    <col min="3" max="6" width="9" style="4"/>
-    <col min="7" max="7" width="9.4" style="4" customWidth="1"/>
-    <col min="8" max="16384" width="9" style="4"/>
+    <col min="1" max="1" width="7.33333333333333" style="7" customWidth="1"/>
+    <col min="2" max="2" width="8.375" style="7" customWidth="1"/>
+    <col min="3" max="6" width="9" style="7"/>
+    <col min="7" max="7" width="9.4" style="7" customWidth="1"/>
+    <col min="8" max="16384" width="9" style="7"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5"/>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5"/>
-      <c r="E1" s="5"/>
-      <c r="F1" s="5"/>
-      <c r="G1" s="5"/>
+      <c r="B1" s="8"/>
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
+      <c r="E1" s="8"/>
+      <c r="F1" s="8"/>
+      <c r="G1" s="8"/>
     </row>
-    <row r="2" s="4" customFormat="1" ht="86.65" customHeight="1"/>
-    <row r="10" s="4" customFormat="1" ht="28.9" customHeight="1"/>
-    <row r="11" s="4" customFormat="1" ht="18" customHeight="1" spans="1:7">
-      <c r="A11" s="6"/>
-      <c r="B11" s="7" t="s">
+    <row r="2" s="7" customFormat="1" ht="86.65" customHeight="1"/>
+    <row r="10" s="7" customFormat="1" ht="28.9" customHeight="1"/>
+    <row r="11" s="7" customFormat="1" ht="18" customHeight="1" spans="1:7">
+      <c r="A11" s="9"/>
+      <c r="B11" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="C11" s="7" t="s">
+      <c r="C11" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="D11" s="7" t="s">
+      <c r="D11" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="E11" s="7" t="s">
+      <c r="E11" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="F11" s="7" t="s">
+      <c r="F11" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="G11" s="7" t="s">
+      <c r="G11" s="10" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="12" s="4" customFormat="1" ht="18" customHeight="1" spans="1:7">
-      <c r="A12" s="8" t="s">
+    <row r="12" s="7" customFormat="1" ht="18" customHeight="1" spans="1:7">
+      <c r="A12" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="B12" s="9">
+      <c r="B12" s="3">
         <f>SUM(C12:G12)</f>
         <v>0</v>
       </c>
-      <c r="C12" s="10" t="s">
+      <c r="C12" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="D12" s="10" t="s">
+      <c r="D12" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="E12" s="10" t="s">
+      <c r="E12" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="F12" s="10" t="s">
+      <c r="F12" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="G12" s="10" t="s">
+      <c r="G12" s="12" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="13" s="4" customFormat="1" ht="18" customHeight="1" spans="1:7">
-      <c r="A13" s="11" t="s">
+    <row r="13" s="7" customFormat="1" ht="18" customHeight="1" spans="1:7">
+      <c r="A13" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="B13" s="12">
+      <c r="B13" s="14">
         <f>SUM(C13:G13)</f>
         <v>0</v>
       </c>
-      <c r="C13" s="10" t="s">
+      <c r="C13" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="D13" s="10" t="s">
+      <c r="D13" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="E13" s="10" t="s">
+      <c r="E13" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="F13" s="10" t="s">
+      <c r="F13" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="G13" s="10" t="s">
+      <c r="G13" s="12" t="s">
         <v>8</v>
       </c>
     </row>
@@ -3565,14 +7234,14 @@
   </cols>
   <sheetData>
     <row r="1" ht="16" customHeight="1" spans="1:6">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
+      <c r="B1" s="4"/>
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
+      <c r="E1" s="4"/>
+      <c r="F1" s="4"/>
     </row>
     <row r="2" ht="16" customHeight="1" spans="1:6">
       <c r="A2" s="2"/>
@@ -3600,16 +7269,16 @@
         <f>SUM(C3:F3)</f>
         <v>0</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="D3" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="E3" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="F3" s="3" t="s">
+      <c r="F3" s="6" t="s">
         <v>8</v>
       </c>
     </row>
@@ -3621,16 +7290,16 @@
         <f>SUM(C4:F4)</f>
         <v>0</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C4" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="D4" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="E4" s="3" t="s">
+      <c r="E4" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="F4" s="3" t="s">
+      <c r="F4" s="6" t="s">
         <v>8</v>
       </c>
     </row>
@@ -3642,4 +7311,472 @@
   <headerFooter/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
+  <dimension ref="A1:J3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I7" sqref="I7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="2"/>
+  <cols>
+    <col min="2" max="2" width="15.625" customWidth="1"/>
+    <col min="3" max="3" width="15" customWidth="1"/>
+    <col min="4" max="4" width="13.25" customWidth="1"/>
+    <col min="5" max="5" width="13" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:10">
+      <c r="B1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
+      <c r="I1" s="1"/>
+      <c r="J1" s="1"/>
+    </row>
+    <row r="2" spans="2:9">
+      <c r="B2" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
+      <c r="A3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="G3" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="H3" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="I3" s="5" t="s">
+        <v>25</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B1:J1"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <headerFooter/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
+  <dimension ref="A1:I16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G15" sqref="G15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <cols>
+    <col min="2" max="2" width="13.25" customWidth="1"/>
+    <col min="3" max="3" width="13.875" customWidth="1"/>
+    <col min="4" max="4" width="14.125" customWidth="1"/>
+    <col min="5" max="5" width="15" customWidth="1"/>
+    <col min="6" max="6" width="13.25" customWidth="1"/>
+    <col min="7" max="7" width="14.75" customWidth="1"/>
+    <col min="8" max="8" width="13" customWidth="1"/>
+    <col min="9" max="9" width="13.375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="24" customHeight="1" spans="1:9">
+      <c r="A1" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B1" s="4"/>
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
+      <c r="E1" s="4"/>
+      <c r="F1" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="G1" s="4"/>
+      <c r="H1" s="4"/>
+      <c r="I1" s="4"/>
+    </row>
+    <row r="2" ht="18" customHeight="1" spans="1:9">
+      <c r="A2" s="2"/>
+      <c r="B2" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="3" ht="18" customHeight="1" spans="1:9">
+      <c r="A3" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B3" s="2">
+        <f t="shared" ref="B3:B7" si="0">SUM(C3:E3)</f>
+        <v>0</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="F3" s="2">
+        <f t="shared" ref="F1:F7" si="1">SUM(G3:I3)</f>
+        <v>0</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="I3" s="3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="4" ht="18" customHeight="1" spans="1:9">
+      <c r="A4" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B4" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="F4" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="I4" s="3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="5" ht="18" customHeight="1" spans="1:9">
+      <c r="A5" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B5" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="F5" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="H5" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="I5" s="3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="6" ht="18" customHeight="1" spans="1:9">
+      <c r="A6" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B6" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="F6" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="H6" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="I6" s="3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="7" ht="18" customHeight="1" spans="1:9">
+      <c r="A7" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B7" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="F7" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="H7" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="I7" s="3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="8" ht="18" customHeight="1" spans="1:9">
+      <c r="A8" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B8" s="2">
+        <f t="shared" ref="B8:I8" si="2">SUM(B3:B7)</f>
+        <v>0</v>
+      </c>
+      <c r="C8" s="2">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="D8" s="2">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="E8" s="2">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="F8" s="2">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G8" s="2">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="H8" s="2">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I8" s="2">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" ht="24" customHeight="1"/>
+    <row r="10" ht="21" customHeight="1"/>
+    <row r="11" ht="21" customHeight="1"/>
+    <row r="12" ht="21" customHeight="1"/>
+    <row r="13" ht="21" customHeight="1"/>
+    <row r="14" ht="21" customHeight="1"/>
+    <row r="15" ht="21" customHeight="1"/>
+    <row r="16" ht="21" customHeight="1"/>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="F1:I1"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <headerFooter/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
+  <dimension ref="A1:G4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I3" sqref="I3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="3" outlineLevelCol="6"/>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="A1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" s="2"/>
+      <c r="B2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:G1"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <headerFooter/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/LoowooTech.Land.Zhoushan.Web/templates/资源形势图表模板.xlsx
+++ b/LoowooTech.Land.Zhoushan.Web/templates/资源形势图表模板.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="26655" windowHeight="13650" activeTab="2"/>
+    <workbookView windowWidth="22095" windowHeight="13650" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="建设用地预审情况" sheetId="1" r:id="rId1"/>
@@ -151,13 +151,13 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="0.00_ "/>
   </numFmts>
-  <fonts count="20">
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -169,19 +169,36 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="18"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -197,45 +214,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -249,6 +228,41 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -257,33 +271,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -303,8 +295,23 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -319,7 +326,103 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -331,127 +434,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -469,19 +458,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -493,13 +506,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -585,11 +592,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -603,26 +616,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -642,17 +646,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -682,6 +680,15 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -690,10 +697,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="17" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -702,137 +709,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="20" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="12" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="27" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -847,6 +854,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -2149,16 +2159,71 @@
           <c:spPr>
             <a:ln w="28575" cap="rnd">
               <a:solidFill>
-                <a:schemeClr val="accent1"/>
+                <a:srgbClr val="C00000"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="none"/>
+            <c:symbol val="triangle"/>
+            <c:size val="9"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
           </c:marker>
           <c:dLbls>
+            <c:dLbl>
+              <c:idx val="0"/>
+              <c:delete val="1"/>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="1"/>
+              <c:delete val="1"/>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="2"/>
+              <c:delete val="1"/>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="3"/>
+              <c:delete val="1"/>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="4"/>
+              <c:delete val="1"/>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="5"/>
+              <c:delete val="1"/>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="6"/>
+              <c:delete val="1"/>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="7"/>
+              <c:layout/>
+              <c:numFmt formatCode="General" sourceLinked="1"/>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="1"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+              </c:extLst>
+            </c:dLbl>
             <c:numFmt formatCode="General" sourceLinked="1"/>
             <c:spPr>
               <a:noFill/>
@@ -2186,7 +2251,7 @@
                 </a:pPr>
               </a:p>
             </c:txPr>
-            <c:dLblPos val="ctr"/>
+            <c:dLblPos val="r"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="1"/>
             <c:showCatName val="0"/>
@@ -2292,7 +2357,7 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:marker val="0"/>
+        <c:marker val="1"/>
         <c:smooth val="0"/>
         <c:axId val="871920846"/>
         <c:axId val="884907760"/>
@@ -2405,7 +2470,11 @@
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:spPr>
-        <a:noFill/>
+        <a:solidFill>
+          <a:schemeClr val="bg1">
+            <a:lumMod val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
         <a:ln>
           <a:noFill/>
         </a:ln>
@@ -6733,16 +6802,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>101600</xdr:colOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>254000</xdr:colOff>
       <xdr:row>4</xdr:row>
-      <xdr:rowOff>31750</xdr:rowOff>
+      <xdr:rowOff>165100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>235585</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>146050</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>387985</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>107950</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -6750,7 +6819,7 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="787400" y="717550"/>
+        <a:off x="254000" y="850900"/>
         <a:ext cx="5839460" cy="3371850"/>
       </xdr:xfrm>
       <a:graphic>
@@ -7101,92 +7170,92 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
   <cols>
-    <col min="1" max="1" width="7.33333333333333" style="7" customWidth="1"/>
-    <col min="2" max="2" width="8.375" style="7" customWidth="1"/>
-    <col min="3" max="6" width="9" style="7"/>
-    <col min="7" max="7" width="9.4" style="7" customWidth="1"/>
-    <col min="8" max="16384" width="9" style="7"/>
+    <col min="1" max="1" width="7.33333333333333" style="8" customWidth="1"/>
+    <col min="2" max="2" width="8.375" style="8" customWidth="1"/>
+    <col min="3" max="6" width="9" style="8"/>
+    <col min="7" max="7" width="9.4" style="8" customWidth="1"/>
+    <col min="8" max="16384" width="9" style="8"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="8"/>
-      <c r="C1" s="8"/>
-      <c r="D1" s="8"/>
-      <c r="E1" s="8"/>
-      <c r="F1" s="8"/>
-      <c r="G1" s="8"/>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+      <c r="E1" s="9"/>
+      <c r="F1" s="9"/>
+      <c r="G1" s="9"/>
     </row>
-    <row r="2" s="7" customFormat="1" ht="86.65" customHeight="1"/>
-    <row r="10" s="7" customFormat="1" ht="28.9" customHeight="1"/>
-    <row r="11" s="7" customFormat="1" ht="18" customHeight="1" spans="1:7">
-      <c r="A11" s="9"/>
-      <c r="B11" s="10" t="s">
+    <row r="2" s="8" customFormat="1" ht="86.65" customHeight="1"/>
+    <row r="10" s="8" customFormat="1" ht="28.9" customHeight="1"/>
+    <row r="11" s="8" customFormat="1" ht="18" customHeight="1" spans="1:7">
+      <c r="A11" s="10"/>
+      <c r="B11" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="C11" s="10" t="s">
+      <c r="C11" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="D11" s="10" t="s">
+      <c r="D11" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="E11" s="10" t="s">
+      <c r="E11" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="F11" s="10" t="s">
+      <c r="F11" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="G11" s="10" t="s">
+      <c r="G11" s="11" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="12" s="7" customFormat="1" ht="18" customHeight="1" spans="1:7">
-      <c r="A12" s="11" t="s">
+    <row r="12" s="8" customFormat="1" ht="18" customHeight="1" spans="1:7">
+      <c r="A12" s="12" t="s">
         <v>7</v>
       </c>
       <c r="B12" s="3">
         <f>SUM(C12:G12)</f>
         <v>0</v>
       </c>
-      <c r="C12" s="12" t="s">
+      <c r="C12" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="D12" s="12" t="s">
+      <c r="D12" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="E12" s="12" t="s">
+      <c r="E12" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="F12" s="12" t="s">
+      <c r="F12" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="G12" s="12" t="s">
+      <c r="G12" s="13" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="13" s="7" customFormat="1" ht="18" customHeight="1" spans="1:7">
-      <c r="A13" s="13" t="s">
+    <row r="13" s="8" customFormat="1" ht="18" customHeight="1" spans="1:7">
+      <c r="A13" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="B13" s="14">
+      <c r="B13" s="15">
         <f>SUM(C13:G13)</f>
         <v>0</v>
       </c>
-      <c r="C13" s="12" t="s">
+      <c r="C13" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="D13" s="12" t="s">
+      <c r="D13" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="E13" s="12" t="s">
+      <c r="E13" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="F13" s="12" t="s">
+      <c r="F13" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="G13" s="12" t="s">
+      <c r="G13" s="13" t="s">
         <v>8</v>
       </c>
     </row>
@@ -7269,16 +7338,16 @@
         <f>SUM(C3:F3)</f>
         <v>0</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="C3" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="6" t="s">
+      <c r="D3" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="E3" s="6" t="s">
+      <c r="E3" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="F3" s="6" t="s">
+      <c r="F3" s="7" t="s">
         <v>8</v>
       </c>
     </row>
@@ -7290,16 +7359,16 @@
         <f>SUM(C4:F4)</f>
         <v>0</v>
       </c>
-      <c r="C4" s="6" t="s">
+      <c r="C4" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="D4" s="6" t="s">
+      <c r="D4" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="E4" s="6" t="s">
+      <c r="E4" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="F4" s="6" t="s">
+      <c r="F4" s="7" t="s">
         <v>8</v>
       </c>
     </row>
@@ -7319,7 +7388,7 @@
   <dimension ref="A1:J3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="2"/>
@@ -7394,7 +7463,7 @@
       <c r="H3" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="I3" s="5" t="s">
+      <c r="I3" s="6" t="s">
         <v>25</v>
       </c>
     </row>
@@ -7414,7 +7483,7 @@
   <dimension ref="A1:I16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+      <selection activeCell="D41" sqref="D41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
